--- a/Assets/Excel/ExampleData.xlsx
+++ b/Assets/Excel/ExampleData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC3F3B-2ED8-504B-9BA3-9D22672B44E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9490F-AF54-6F4C-B373-24F17C10B0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NPC" sheetId="1" r:id="rId1"/>
+    <sheet name="NPCFF" sheetId="1" r:id="rId1"/>
     <sheet name="#Item" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,2,3,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DateDict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,7 +145,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO,BABA|BABA,KEKE</t>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s:aa|d:bb|f:cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -231,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,15 +244,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +589,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -605,8 +600,8 @@
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -633,7 +628,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -656,10 +651,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -707,10 +702,10 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -733,10 +728,10 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -757,10 +752,10 @@
       <c r="F6" s="2">
         <v>44</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -840,11 +835,11 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
